--- a/November'21/22.11.2021/Bank Statement October-2021.xlsx
+++ b/November'21/22.11.2021/Bank Statement October-2021.xlsx
@@ -3499,12 +3499,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="18" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="18" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3521,51 +3566,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="18" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="18" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4319,70 +4319,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="369" t="s">
+      <c r="A1" s="359" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="369"/>
-      <c r="C1" s="369"/>
-      <c r="D1" s="369"/>
-      <c r="E1" s="369"/>
-      <c r="F1" s="369"/>
-      <c r="G1" s="369"/>
-      <c r="H1" s="369"/>
-      <c r="I1" s="369"/>
-      <c r="J1" s="369"/>
-      <c r="K1" s="369"/>
-      <c r="L1" s="369"/>
-      <c r="M1" s="369"/>
-      <c r="N1" s="369"/>
-      <c r="O1" s="369"/>
-      <c r="P1" s="369"/>
-      <c r="Q1" s="369"/>
-      <c r="R1" s="369"/>
+      <c r="B1" s="359"/>
+      <c r="C1" s="359"/>
+      <c r="D1" s="359"/>
+      <c r="E1" s="359"/>
+      <c r="F1" s="359"/>
+      <c r="G1" s="359"/>
+      <c r="H1" s="359"/>
+      <c r="I1" s="359"/>
+      <c r="J1" s="359"/>
+      <c r="K1" s="359"/>
+      <c r="L1" s="359"/>
+      <c r="M1" s="359"/>
+      <c r="N1" s="359"/>
+      <c r="O1" s="359"/>
+      <c r="P1" s="359"/>
+      <c r="Q1" s="359"/>
+      <c r="R1" s="359"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="370" t="s">
+      <c r="A2" s="360" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="370"/>
-      <c r="C2" s="370"/>
-      <c r="D2" s="370"/>
-      <c r="E2" s="370"/>
-      <c r="F2" s="370"/>
-      <c r="G2" s="370"/>
-      <c r="H2" s="370"/>
-      <c r="I2" s="370"/>
-      <c r="J2" s="370"/>
-      <c r="K2" s="370"/>
-      <c r="L2" s="370"/>
-      <c r="M2" s="370"/>
-      <c r="N2" s="370"/>
-      <c r="O2" s="370"/>
-      <c r="P2" s="370"/>
-      <c r="Q2" s="370"/>
-      <c r="R2" s="370"/>
+      <c r="B2" s="360"/>
+      <c r="C2" s="360"/>
+      <c r="D2" s="360"/>
+      <c r="E2" s="360"/>
+      <c r="F2" s="360"/>
+      <c r="G2" s="360"/>
+      <c r="H2" s="360"/>
+      <c r="I2" s="360"/>
+      <c r="J2" s="360"/>
+      <c r="K2" s="360"/>
+      <c r="L2" s="360"/>
+      <c r="M2" s="360"/>
+      <c r="N2" s="360"/>
+      <c r="O2" s="360"/>
+      <c r="P2" s="360"/>
+      <c r="Q2" s="360"/>
+      <c r="R2" s="360"/>
     </row>
     <row r="3" spans="1:25" s="67" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="377" t="s">
+      <c r="A3" s="371" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="378"/>
-      <c r="C3" s="378"/>
-      <c r="D3" s="378"/>
-      <c r="E3" s="378"/>
-      <c r="F3" s="378"/>
-      <c r="G3" s="378"/>
-      <c r="H3" s="378"/>
-      <c r="I3" s="378"/>
-      <c r="J3" s="378"/>
-      <c r="K3" s="378"/>
-      <c r="L3" s="378"/>
-      <c r="M3" s="378"/>
-      <c r="N3" s="378"/>
-      <c r="O3" s="378"/>
-      <c r="P3" s="378"/>
-      <c r="Q3" s="378"/>
-      <c r="R3" s="379"/>
+      <c r="B3" s="372"/>
+      <c r="C3" s="372"/>
+      <c r="D3" s="372"/>
+      <c r="E3" s="372"/>
+      <c r="F3" s="372"/>
+      <c r="G3" s="372"/>
+      <c r="H3" s="372"/>
+      <c r="I3" s="372"/>
+      <c r="J3" s="372"/>
+      <c r="K3" s="372"/>
+      <c r="L3" s="372"/>
+      <c r="M3" s="372"/>
+      <c r="N3" s="372"/>
+      <c r="O3" s="372"/>
+      <c r="P3" s="372"/>
+      <c r="Q3" s="372"/>
+      <c r="R3" s="373"/>
       <c r="T3" s="68"/>
       <c r="U3" s="69"/>
       <c r="V3" s="69"/>
@@ -4391,55 +4391,55 @@
       <c r="Y3" s="70"/>
     </row>
     <row r="4" spans="1:25" s="70" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="371" t="s">
+      <c r="A4" s="361" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="373" t="s">
+      <c r="B4" s="363" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="373" t="s">
+      <c r="C4" s="363" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="367" t="s">
+      <c r="D4" s="365" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="367" t="s">
+      <c r="E4" s="365" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="367" t="s">
+      <c r="F4" s="365" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="367" t="s">
+      <c r="G4" s="365" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="367" t="s">
+      <c r="H4" s="365" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="367" t="s">
+      <c r="I4" s="365" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="367" t="s">
+      <c r="J4" s="365" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="380" t="s">
+      <c r="K4" s="374" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="359" t="s">
+      <c r="L4" s="367" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="361" t="s">
+      <c r="M4" s="376" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="363" t="s">
+      <c r="N4" s="378" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="365" t="s">
+      <c r="O4" s="380" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="359" t="s">
+      <c r="P4" s="367" t="s">
         <v>126</v>
       </c>
-      <c r="Q4" s="375" t="s">
+      <c r="Q4" s="369" t="s">
         <v>185</v>
       </c>
       <c r="R4" s="192" t="s">
@@ -4452,23 +4452,23 @@
       <c r="X4" s="69"/>
     </row>
     <row r="5" spans="1:25" s="70" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="372"/>
-      <c r="B5" s="374"/>
-      <c r="C5" s="374"/>
-      <c r="D5" s="368"/>
-      <c r="E5" s="368"/>
-      <c r="F5" s="368"/>
-      <c r="G5" s="368"/>
-      <c r="H5" s="368"/>
-      <c r="I5" s="368"/>
-      <c r="J5" s="368"/>
-      <c r="K5" s="381"/>
-      <c r="L5" s="360"/>
-      <c r="M5" s="362"/>
-      <c r="N5" s="364"/>
-      <c r="O5" s="366"/>
-      <c r="P5" s="360"/>
-      <c r="Q5" s="376"/>
+      <c r="A5" s="362"/>
+      <c r="B5" s="364"/>
+      <c r="C5" s="364"/>
+      <c r="D5" s="366"/>
+      <c r="E5" s="366"/>
+      <c r="F5" s="366"/>
+      <c r="G5" s="366"/>
+      <c r="H5" s="366"/>
+      <c r="I5" s="366"/>
+      <c r="J5" s="366"/>
+      <c r="K5" s="375"/>
+      <c r="L5" s="368"/>
+      <c r="M5" s="377"/>
+      <c r="N5" s="379"/>
+      <c r="O5" s="381"/>
+      <c r="P5" s="368"/>
+      <c r="Q5" s="370"/>
       <c r="R5" s="193" t="s">
         <v>29</v>
       </c>
@@ -7466,6 +7466,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A4:A5"/>
@@ -7482,10 +7486,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -9550,7 +9550,7 @@
   <dimension ref="B1:M166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B2" sqref="B2:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
